--- a/RICOH Aficio SP 5200DN/2024/05-2024/Registro Impressão 02-05-2024 - Expedição.xlsx
+++ b/RICOH Aficio SP 5200DN/2024/05-2024/Registro Impressão 02-05-2024 - Expedição.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.100.210\alegria\ERICK\Registro Impressões\Impressora - Expedição\05-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0E09139-5263-407A-A352-C1325653EE97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0ACECB3-D273-4A63-8930-0B8E1F237AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="5280" windowWidth="23208" windowHeight="7056" xr2:uid="{1C3813F7-71ED-40A3-9BEB-291F938A7D5E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1C3813F7-71ED-40A3-9BEB-291F938A7D5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -212,9 +210,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -252,7 +250,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -358,7 +356,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -500,7 +498,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -510,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{187DEDF8-AA69-47FC-96F3-8C2790BAD2E2}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -579,11 +577,11 @@
         <v>4</v>
       </c>
       <c r="H2" s="2">
-        <f>COUNT(G2:G101)</f>
+        <f>COUNT(G2:G1000)</f>
         <v>17</v>
       </c>
       <c r="I2" s="2">
-        <f>SUM(G2:G102)</f>
+        <f>SUM(G2:G1000)</f>
         <v>51</v>
       </c>
     </row>
